--- a/input/cmd.xlsx
+++ b/input/cmd.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="53460" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="818"/>
+    <workbookView xWindow="68310" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="818" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cmd-apply" sheetId="16" r:id="rId1"/>
     <sheet name="cmd-submit" sheetId="17" r:id="rId2"/>
     <sheet name="cmd-approve" sheetId="13" r:id="rId3"/>
     <sheet name="cmd-end" sheetId="18" r:id="rId4"/>
+    <sheet name="cmd-report" sheetId="19" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cmd-apply'!$A$5:$D$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'cmd-approve'!$A$5:$D$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'cmd-end'!$A$5:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'cmd-report'!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cmd-submit'!$A$5:$D$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -133,6 +135,36 @@
   </si>
   <si>
     <t>${id.desc}</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>http://172.16.0.50/imart/mseries/mastermaintenance/master/masterdata/initMasterDataSearch?category=Report</t>
+  </si>
+  <si>
+    <t>//input[@id="searchButton"]</t>
+  </si>
+  <si>
+    <t>wait4Text</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>searchIcon</t>
+  </si>
+  <si>
+    <t>jsClick</t>
+  </si>
+  <si>
+    <t>//*[@id="grid"]/div[3]/div[1]/div[3]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="grid"]/div[5]/div/div/div[2]/img</t>
+  </si>
+  <si>
+    <t>wait4Click</t>
   </si>
 </sst>
 </file>
@@ -650,11 +682,11 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19:D20"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -773,7 +805,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1209,4 +1241,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="98.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f>ROW()-ROW($A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <f t="shared" ref="A7:A12" si="0">ROW()-ROW($A$5)</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:D7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>